--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE03DE5-B0E6-4E98-AF79-7BC1A5FA8D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666AA26B-8724-4308-A12D-FB8BD66F6811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="220">
   <si>
     <t>username</t>
   </si>
@@ -717,6 +717,9 @@
   </si>
   <si>
     <t>Medications</t>
+  </si>
+  <si>
+    <t>Examination</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1118,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1137,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
         <v>129</v>
@@ -2216,7 +2219,7 @@
       </c>
       <c r="D2" s="7">
         <f ca="1">TODAY()</f>
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>214</v>
@@ -2295,7 +2298,7 @@
       </c>
       <c r="D2" s="7">
         <f ca="1">TODAY()</f>
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>215</v>
